--- a/projeto/arquivos/Final.xlsx
+++ b/projeto/arquivos/Final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Datasets</t>
   </si>
@@ -55,23 +55,98 @@
     <t>For</t>
   </si>
   <si>
-    <t>0.908</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.848</t>
-  </si>
-  <si>
-    <t>0.625</t>
+    <t>Implementação</t>
+  </si>
+  <si>
+    <t>Artigo</t>
+  </si>
+  <si>
+    <t>91.9 (17.7)</t>
+  </si>
+  <si>
+    <t>87.4 (1.3)</t>
+  </si>
+  <si>
+    <t>87.1 (1.8)</t>
+  </si>
+  <si>
+    <t>78.3 (10.6)</t>
+  </si>
+  <si>
+    <t>75.2 (13.9)</t>
+  </si>
+  <si>
+    <t>83.5 (3.1)</t>
+  </si>
+  <si>
+    <t>50.2 (19.8)</t>
+  </si>
+  <si>
+    <t>93.9 (12.3)</t>
+  </si>
+  <si>
+    <t>77.5(10.5)</t>
+  </si>
+  <si>
+    <t>86.9(1.5)</t>
+  </si>
+  <si>
+    <t>86.6(1.7)</t>
+  </si>
+  <si>
+    <t>76.3(11.0)</t>
+  </si>
+  <si>
+    <t>86.1(17.9)</t>
+  </si>
+  <si>
+    <t>86.1(1.9)</t>
+  </si>
+  <si>
+    <t>86.3(2.0)</t>
+  </si>
+  <si>
+    <t>77.5(11.1)</t>
+  </si>
+  <si>
+    <t>92.0(16.6)</t>
+  </si>
+  <si>
+    <t>87.5 (1.4)</t>
+  </si>
+  <si>
+    <t>83.5(3.0)</t>
+  </si>
+  <si>
+    <t>93.6(12.0)</t>
+  </si>
+  <si>
+    <t>86.5(1.4)</t>
+  </si>
+  <si>
+    <t>86.3(1.6)</t>
+  </si>
+  <si>
+    <t>78.2 (10.8)</t>
+  </si>
+  <si>
+    <t>87.1 (2.2)</t>
+  </si>
+  <si>
+    <t>87.8 (1.6)</t>
+  </si>
+  <si>
+    <t>91.7 (17.2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +162,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +183,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,11 +219,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,9 +272,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,95 +571,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.83699999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.86399999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:G8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -516,85 +840,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="5">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="5">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="5">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/projeto/arquivos/Final.xlsx
+++ b/projeto/arquivos/Final.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="AgeBased" sheetId="1" r:id="rId1"/>
-    <sheet name="AcuracyBased" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparação Modelos" sheetId="4" r:id="rId1"/>
+    <sheet name="DecisionTree" sheetId="3" r:id="rId2"/>
+    <sheet name="NaiveBayes" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
   <si>
     <t>Datasets</t>
   </si>
@@ -52,9 +53,6 @@
     <t>SEARec</t>
   </si>
   <si>
-    <t>For</t>
-  </si>
-  <si>
     <t>Implementação</t>
   </si>
   <si>
@@ -70,33 +68,21 @@
     <t>87.1 (1.8)</t>
   </si>
   <si>
-    <t>78.3 (10.6)</t>
-  </si>
-  <si>
     <t>75.2 (13.9)</t>
   </si>
   <si>
     <t>83.5 (3.1)</t>
   </si>
   <si>
-    <t>50.2 (19.8)</t>
-  </si>
-  <si>
     <t>93.9 (12.3)</t>
   </si>
   <si>
-    <t>77.5(10.5)</t>
-  </si>
-  <si>
     <t>86.9(1.5)</t>
   </si>
   <si>
     <t>86.6(1.7)</t>
   </si>
   <si>
-    <t>76.3(11.0)</t>
-  </si>
-  <si>
     <t>86.1(17.9)</t>
   </si>
   <si>
@@ -106,9 +92,6 @@
     <t>86.3(2.0)</t>
   </si>
   <si>
-    <t>77.5(11.1)</t>
-  </si>
-  <si>
     <t>92.0(16.6)</t>
   </si>
   <si>
@@ -127,9 +110,6 @@
     <t>86.3(1.6)</t>
   </si>
   <si>
-    <t>78.2 (10.8)</t>
-  </si>
-  <si>
     <t>87.1 (2.2)</t>
   </si>
   <si>
@@ -137,6 +117,36 @@
   </si>
   <si>
     <t>91.7 (17.2)</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t>Perceptron</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Configurações básicas:</t>
+  </si>
+  <si>
+    <t>Knora-e</t>
+  </si>
+  <si>
+    <t>M = 4</t>
+  </si>
+  <si>
+    <t>Age Based</t>
+  </si>
+  <si>
+    <t>Accuracy Based</t>
+  </si>
+  <si>
+    <t>k = 5</t>
+  </si>
+  <si>
+    <t>Hoeffding Tree (Artigo)</t>
   </si>
 </sst>
 </file>
@@ -170,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +202,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,14 +294,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,6 +329,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,382 +632,672 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G1" sqref="G1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.83699999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.86399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="B4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
+      <c r="D4" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A8:G8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.83699999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.749</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.86799999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.876</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>0.83199999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="20"/>
+    <col min="9" max="9" width="18" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="I1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="I2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="I8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="I9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>